--- a/chiloPro/sample-series/structure-books_sample.xlsx
+++ b/chiloPro/sample-series/structure-books_sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="199">
   <si>
     <t>cover</t>
     <phoneticPr fontId="3"/>
@@ -371,14 +371,6 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>解説ビデオのYoutubeID
-─────</t>
-    <rPh sb="0" eb="2">
-      <t>カイセツ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1246,6 +1238,40 @@
   </si>
   <si>
     <t>001_cover_image_1.png</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>解説ビデオのYoutubeID
+─────
+Web CHiLO Book用の解説ビデオをYoutubeからビデオを配信する場合、登録したYoutubeビデオのURLに含まれるビデオIDを入力します。
+（例）https://www.youtube.com/watch?v=W6l-nifsu6w　の?v=以降の部分
+注意：入力した場合、ローカル環境からはビデオの再生を確認できません。</t>
+    <rPh sb="64" eb="66">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>解説ビデオのYoutubeID
+─────
+Web CHiLO Book用の解説ビデオをYoutubeから配信する場合、登録したYoutubeビデオのURLに含まれるビデオIDを入力します。
+（例）https://www.youtube.com/watch?v=W6l-nifsu6w　の?v=以降の部分
+注意：入力した場合、ローカル環境からはビデオの再生を確認できません。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1440,7 +1466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1721,15 +1747,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1910,7 +1927,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2100,18 +2117,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -2226,10 +2231,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2640,7 +2641,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2653,188 +2654,188 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
       <c r="A1" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="43">
         <v>1</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" hidden="1">
       <c r="A2" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="41" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.75" hidden="1">
       <c r="A3" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="41" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5">
       <c r="A4" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>107</v>
+        <v>71</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>106</v>
       </c>
       <c r="C4" s="41" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.5">
       <c r="A5" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5">
       <c r="A6" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25">
       <c r="A8" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="43" t="s">
         <v>76</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>77</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="64" t="s">
-        <v>64</v>
+      <c r="D8" s="61" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1">
       <c r="A9" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="65"/>
+      <c r="D9" s="62"/>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1">
       <c r="A10" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="45">
         <v>41530</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" s="65"/>
+        <v>194</v>
+      </c>
+      <c r="D10" s="62"/>
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1">
       <c r="A11" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="66"/>
+      <c r="D11" s="63"/>
     </row>
     <row r="12" spans="1:5" ht="114">
       <c r="A12" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="142.5">
       <c r="A13" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.5">
       <c r="A14" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="61" t="s">
-        <v>112</v>
+        <v>81</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>111</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25">
@@ -2842,101 +2843,101 @@
         <v>0</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25">
       <c r="A16" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="76" t="s">
-        <v>106</v>
+      <c r="D16" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="73" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.5" customHeight="1">
       <c r="A17" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="76"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="73"/>
     </row>
     <row r="18" spans="1:5" ht="13.5" customHeight="1">
       <c r="A18" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="76"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="73"/>
     </row>
     <row r="19" spans="1:5" ht="13.5" customHeight="1">
       <c r="A19" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>90</v>
-      </c>
       <c r="D19" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="76"/>
+        <v>66</v>
+      </c>
+      <c r="E19" s="73"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="38"/>
     </row>
     <row r="22" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A22" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="69"/>
+      <c r="A22" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="70"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="72"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="69"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="73"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="75"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -2977,7 +2978,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>24</v>
@@ -2991,19 +2992,19 @@
     </row>
     <row r="2" spans="1:5" ht="57.75" thickTop="1">
       <c r="A2" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="D2" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="47.1" customHeight="1">
@@ -3015,13 +3016,13 @@
     </row>
     <row r="4" spans="1:5" ht="128.25">
       <c r="A4" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>45</v>
@@ -3036,7 +3037,7 @@
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
       <c r="E5" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3051,32 +3052,32 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="77" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
+      <c r="B8" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="82"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="79"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="B10" s="80"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="82"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="79"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" s="80"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="82"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" s="83"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3100,7 +3101,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3111,10 +3112,10 @@
     <col min="3" max="3" width="23.125" style="11" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="12" customWidth="1"/>
     <col min="5" max="5" width="40.625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="30.625" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="11" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="11" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="11" customWidth="1"/>
+    <col min="9" max="9" width="37.5" style="11" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="11" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
     <col min="12" max="16384" width="8.875" style="11"/>
@@ -3157,13 +3158,13 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="48"/>
       <c r="E2" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
@@ -3177,26 +3178,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>125</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>126</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3" s="16" t="s">
         <v>11</v>
@@ -3208,26 +3209,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>11</v>
@@ -3239,26 +3240,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>134</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>11</v>
@@ -3270,26 +3271,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>11</v>
@@ -3301,26 +3302,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>141</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>142</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>11</v>
@@ -3332,26 +3333,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="F8" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="16" t="s">
         <v>146</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>147</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J8" s="16" t="s">
         <v>11</v>
@@ -3363,26 +3364,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>152</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J9" s="16" t="s">
         <v>11</v>
@@ -3394,26 +3395,26 @@
         <v>1</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>11</v>
@@ -3425,26 +3426,26 @@
         <v>1</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" s="16" t="s">
         <v>162</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>163</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>11</v>
@@ -3456,26 +3457,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="F12" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="G12" s="16" t="s">
         <v>167</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>168</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J12" s="16" t="s">
         <v>11</v>
@@ -3487,26 +3488,26 @@
         <v>1</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D13" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="16" t="s">
         <v>172</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>173</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J13" s="16" t="s">
         <v>11</v>
@@ -3518,26 +3519,26 @@
         <v>1</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="F14" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="G14" s="16" t="s">
         <v>177</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>178</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J14" s="16" t="s">
         <v>11</v>
@@ -3549,26 +3550,26 @@
         <v>1</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D15" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="F15" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="G15" s="16" t="s">
         <v>182</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>183</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J15" s="16" t="s">
         <v>11</v>
@@ -3580,26 +3581,26 @@
         <v>1</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D16" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="F16" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="G16" s="16" t="s">
         <v>187</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>188</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J16" s="16" t="s">
         <v>11</v>
@@ -3611,12 +3612,12 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="17" t="s">
         <v>190</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="17" t="s">
-        <v>191</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -3640,7 +3641,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="53" customFormat="1" ht="108">
+    <row r="19" spans="1:11" s="53" customFormat="1" ht="148.5">
       <c r="A19" s="50" t="s">
         <v>47</v>
       </c>
@@ -3654,7 +3655,7 @@
         <v>50</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F19" s="50" t="s">
         <v>51</v>
@@ -3663,63 +3664,61 @@
         <v>52</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="J19" s="50" t="s">
-        <v>54</v>
-      </c>
       <c r="K19" s="52"/>
     </row>
-    <row r="20" spans="1:11" s="57" customFormat="1" ht="36" customHeight="1">
-      <c r="D20" s="58"/>
-      <c r="I20" s="95" t="s">
-        <v>106</v>
-      </c>
-      <c r="J20" s="95"/>
-      <c r="K20" s="59"/>
+    <row r="20" spans="1:11" s="21" customFormat="1">
+      <c r="D20" s="22"/>
+      <c r="K20" s="23"/>
     </row>
     <row r="21" spans="1:11" s="21" customFormat="1">
       <c r="D21" s="22"/>
       <c r="K21" s="23"/>
     </row>
-    <row r="22" spans="1:11" s="21" customFormat="1">
-      <c r="D22" s="22"/>
-      <c r="K22" s="23"/>
-    </row>
-    <row r="23" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B23" s="86" t="s">
-        <v>101</v>
-      </c>
+    <row r="22" spans="1:11" ht="14.25" customHeight="1">
+      <c r="B22" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="85"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" s="86"/>
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="88"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="91"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="B25" s="89"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="91"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="B26" s="89"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="91"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="B27" s="89"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="91"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="88"/>
     </row>
     <row r="28" spans="1:11">
       <c r="B28" s="89"/>
@@ -3727,17 +3726,10 @@
       <c r="D28" s="90"/>
       <c r="E28" s="91"/>
     </row>
-    <row r="29" spans="1:11">
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="94"/>
-    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="2">
-    <mergeCell ref="B23:E29"/>
-    <mergeCell ref="I20:J20"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="B22:E28"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -3778,9 +3770,9 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
@@ -3792,7 +3784,7 @@
     <col min="6" max="6" width="25.5" style="11" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="11" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="11" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="11" customWidth="1"/>
+    <col min="9" max="9" width="37.5" style="11" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="11" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
     <col min="12" max="16384" width="8.875" style="11"/>
@@ -3841,7 +3833,7 @@
       <c r="C2" s="28"/>
       <c r="D2" s="48"/>
       <c r="E2" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
@@ -3987,7 +3979,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="53" customFormat="1" ht="108">
+    <row r="14" spans="1:11" s="53" customFormat="1" ht="148.5">
       <c r="A14" s="50" t="s">
         <v>47</v>
       </c>
@@ -4001,7 +3993,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F14" s="50" t="s">
         <v>51</v>
@@ -4010,81 +4002,72 @@
         <v>52</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="J14" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="50" t="s">
-        <v>54</v>
-      </c>
       <c r="K14" s="52"/>
     </row>
-    <row r="15" spans="1:11" s="57" customFormat="1" ht="36" customHeight="1">
-      <c r="D15" s="58"/>
-      <c r="I15" s="95" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15" s="95"/>
-      <c r="K15" s="59"/>
+    <row r="15" spans="1:11" s="21" customFormat="1">
+      <c r="D15" s="22"/>
+      <c r="K15" s="23"/>
     </row>
     <row r="16" spans="1:11" s="21" customFormat="1">
       <c r="D16" s="22"/>
       <c r="K16" s="23"/>
     </row>
-    <row r="17" spans="2:11" s="21" customFormat="1">
-      <c r="D17" s="22"/>
-      <c r="K17" s="23"/>
-    </row>
-    <row r="18" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B18" s="86" t="s">
-        <v>101</v>
-      </c>
+    <row r="17" spans="2:5" ht="14.25" customHeight="1">
+      <c r="B17" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="86"/>
       <c r="C18" s="87"/>
       <c r="D18" s="87"/>
       <c r="E18" s="88"/>
     </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="91"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="89"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="91"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="91"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="91"/>
-    </row>
-    <row r="23" spans="2:11">
+    <row r="19" spans="2:5">
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" s="89"/>
       <c r="C23" s="90"/>
       <c r="D23" s="90"/>
       <c r="E23" s="91"/>
     </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="94"/>
-    </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="2">
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B18:E24"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="B17:E23"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4143,8 +4126,8 @@
       <c r="A2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>193</v>
+      <c r="B2" s="60" t="s">
+        <v>192</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>11</v>
@@ -4152,7 +4135,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18" t="s">

--- a/chiloPro/sample-series/structure-books_sample.xlsx
+++ b/chiloPro/sample-series/structure-books_sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="書籍構成シート" sheetId="38" r:id="rId4"/>
     <sheet name="書籍構成シート選択用" sheetId="35" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1223,16 +1223,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>初版発行日</t>
-    <rPh sb="0" eb="2">
-      <t>ショハン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ハッコウビ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>epub3パッケージドキュメント（拡張子がopfのドキュメント）のunique-identifierに設定されます。</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1272,6 +1262,16 @@
 Web CHiLO Book用の解説ビデオをYoutubeから配信する場合、登録したYoutubeビデオのURLに含まれるビデオIDを入力します。
 （例）https://www.youtube.com/watch?v=W6l-nifsu6w　の?v=以降の部分
 注意：入力した場合、ローカル環境からはビデオの再生を確認できません。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（必須）初版発行日</t>
+    <rPh sb="4" eb="6">
+      <t>ショハン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ハッコウビ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2641,7 +2641,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2715,7 +2715,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5">
@@ -2780,7 +2780,7 @@
         <v>41530</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D10" s="62"/>
     </row>
@@ -2940,7 +2940,6 @@
       <c r="C25" s="72"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="D16:D18"/>
@@ -3164,7 +3163,7 @@
       <c r="C2" s="28"/>
       <c r="D2" s="48"/>
       <c r="E2" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
@@ -3667,7 +3666,7 @@
         <v>58</v>
       </c>
       <c r="I19" s="50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J19" s="50" t="s">
         <v>53</v>
@@ -3772,7 +3771,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
@@ -4005,7 +4004,7 @@
         <v>58</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J14" s="50" t="s">
         <v>53</v>

--- a/chiloPro/sample-series/structure-books_sample.xlsx
+++ b/chiloPro/sample-series/structure-books_sample.xlsx
@@ -937,10 +937,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>http://in1.chilobook.net/</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>001_inside_cover.png</t>
   </si>
   <si>
@@ -1272,6 +1268,10 @@
     <rPh sb="6" eb="9">
       <t>ハッコウビ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http://in1.chilobook.net</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2641,7 +2641,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2715,7 +2717,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5">
@@ -2780,7 +2782,7 @@
         <v>41530</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D10" s="62"/>
     </row>
@@ -2829,7 +2831,7 @@
         <v>81</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>40</v>
@@ -2843,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>96</v>
@@ -2857,7 +2859,7 @@
         <v>82</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>83</v>
@@ -2874,7 +2876,7 @@
         <v>84</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>85</v>
@@ -2887,7 +2889,7 @@
         <v>86</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>87</v>
@@ -2900,7 +2902,7 @@
         <v>88</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>89</v>
@@ -2991,19 +2993,19 @@
     </row>
     <row r="2" spans="1:5" ht="57.75" thickTop="1">
       <c r="A2" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="D2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="47.1" customHeight="1">
@@ -3163,7 +3165,7 @@
       <c r="C2" s="28"/>
       <c r="D2" s="48"/>
       <c r="E2" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
@@ -3177,26 +3179,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J3" s="16" t="s">
         <v>11</v>
@@ -3208,26 +3210,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>11</v>
@@ -3239,26 +3241,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>133</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>11</v>
@@ -3270,26 +3272,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>137</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>11</v>
@@ -3301,26 +3303,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>140</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>141</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>11</v>
@@ -3332,26 +3334,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="F8" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>146</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J8" s="16" t="s">
         <v>11</v>
@@ -3363,26 +3365,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>151</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J9" s="16" t="s">
         <v>11</v>
@@ -3394,26 +3396,26 @@
         <v>1</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>156</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>11</v>
@@ -3425,26 +3427,26 @@
         <v>1</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" s="16" t="s">
         <v>161</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>162</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>11</v>
@@ -3456,26 +3458,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="F12" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="G12" s="16" t="s">
         <v>166</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>167</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J12" s="16" t="s">
         <v>11</v>
@@ -3487,26 +3489,26 @@
         <v>1</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>172</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J13" s="16" t="s">
         <v>11</v>
@@ -3518,26 +3520,26 @@
         <v>1</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D14" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="F14" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="G14" s="16" t="s">
         <v>176</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>177</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J14" s="16" t="s">
         <v>11</v>
@@ -3549,26 +3551,26 @@
         <v>1</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D15" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="F15" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="G15" s="16" t="s">
         <v>181</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>182</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J15" s="16" t="s">
         <v>11</v>
@@ -3580,26 +3582,26 @@
         <v>1</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D16" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="F16" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="G16" s="16" t="s">
         <v>186</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>187</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J16" s="16" t="s">
         <v>11</v>
@@ -3611,12 +3613,12 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="59"/>
       <c r="E17" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -3666,7 +3668,7 @@
         <v>58</v>
       </c>
       <c r="I19" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J19" s="50" t="s">
         <v>53</v>
@@ -4004,7 +4006,7 @@
         <v>58</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J14" s="50" t="s">
         <v>53</v>
@@ -4126,7 +4128,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>11</v>
@@ -4134,7 +4136,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18" t="s">

--- a/chiloPro/sample-series/structure-books_sample.xlsx
+++ b/chiloPro/sample-series/structure-books_sample.xlsx
@@ -943,15 +943,6 @@
     <t>1127747850,100006427929229</t>
   </si>
   <si>
-    <t>CHiLO</t>
-  </si>
-  <si>
-    <t>UA-42344653-3</t>
-  </si>
-  <si>
-    <t>1450254328589530</t>
-  </si>
-  <si>
     <t>vol-1</t>
   </si>
   <si>
@@ -1272,6 +1263,18 @@
   </si>
   <si>
     <t>http://in1.chilobook.net</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CHiLO</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UA-42344653-3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1450254328589530</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2641,9 +2644,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2717,7 +2718,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5">
@@ -2782,7 +2783,7 @@
         <v>41530</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D10" s="62"/>
     </row>
@@ -2831,7 +2832,7 @@
         <v>81</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>40</v>
@@ -2875,8 +2876,8 @@
       <c r="A17" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="43" t="s">
-        <v>113</v>
+      <c r="B17" s="57" t="s">
+        <v>198</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>85</v>
@@ -2889,7 +2890,7 @@
         <v>86</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>114</v>
+        <v>196</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>87</v>
@@ -2902,7 +2903,7 @@
         <v>88</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>89</v>
@@ -2942,6 +2943,7 @@
       <c r="C25" s="72"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="D16:D18"/>
@@ -2993,19 +2995,19 @@
     </row>
     <row r="2" spans="1:5" ht="57.75" thickTop="1">
       <c r="A2" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="E2" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="47.1" customHeight="1">
@@ -3165,7 +3167,7 @@
       <c r="C2" s="28"/>
       <c r="D2" s="48"/>
       <c r="E2" s="34" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
@@ -3179,26 +3181,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>124</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J3" s="16" t="s">
         <v>11</v>
@@ -3210,26 +3212,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>11</v>
@@ -3241,26 +3243,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>11</v>
@@ -3272,26 +3274,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>11</v>
@@ -3303,26 +3305,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>11</v>
@@ -3334,26 +3336,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>145</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J8" s="16" t="s">
         <v>11</v>
@@ -3365,26 +3367,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>147</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>150</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J9" s="16" t="s">
         <v>11</v>
@@ -3396,26 +3398,26 @@
         <v>1</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>155</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>11</v>
@@ -3427,26 +3429,26 @@
         <v>1</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="G11" s="16" t="s">
         <v>158</v>
-      </c>
-      <c r="D11" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>161</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>11</v>
@@ -3458,26 +3460,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C12" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>163</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>166</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J12" s="16" t="s">
         <v>11</v>
@@ -3489,26 +3491,26 @@
         <v>1</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>168</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>171</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J13" s="16" t="s">
         <v>11</v>
@@ -3520,26 +3522,26 @@
         <v>1</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>173</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>176</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J14" s="16" t="s">
         <v>11</v>
@@ -3551,26 +3553,26 @@
         <v>1</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>178</v>
-      </c>
-      <c r="D15" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>181</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J15" s="16" t="s">
         <v>11</v>
@@ -3582,26 +3584,26 @@
         <v>1</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C16" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>183</v>
-      </c>
-      <c r="D16" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>186</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J16" s="16" t="s">
         <v>11</v>
@@ -3613,12 +3615,12 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="59"/>
       <c r="E17" s="17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -3668,7 +3670,7 @@
         <v>58</v>
       </c>
       <c r="I19" s="50" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J19" s="50" t="s">
         <v>53</v>
@@ -4006,7 +4008,7 @@
         <v>58</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J14" s="50" t="s">
         <v>53</v>
@@ -4128,7 +4130,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>11</v>
@@ -4136,7 +4138,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18" t="s">

--- a/chiloPro/sample-series/structure-books_sample.xlsx
+++ b/chiloPro/sample-series/structure-books_sample.xlsx
@@ -1274,7 +1274,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>1450254328589530</t>
+    <t>1450254328589539</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2644,7 +2644,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>

--- a/chiloPro/sample-series/structure-books_sample.xlsx
+++ b/chiloPro/sample-series/structure-books_sample.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="203">
   <si>
     <t>cover</t>
     <phoneticPr fontId="3"/>
@@ -1275,6 +1275,33 @@
   </si>
   <si>
     <t>1450254328589539</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>deploy-url</t>
+  </si>
+  <si>
+    <t>http://in1.chilobook.net</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Web CHiLO BookのOGPに指定するURL</t>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Web CHiLO BookをアップロードするURLの、/vol-x-html/より前の部分を記入します。</t>
+    <rPh sb="42" eb="43">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キニュウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1930,7 +1957,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2134,6 +2161,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2318,13 +2348,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>248445</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>70334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>184147</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>138507</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2642,7 +2672,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2655,7 +2685,7 @@
     <col min="5" max="5" width="48.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="42" t="s">
         <v>90</v>
       </c>
@@ -2669,7 +2699,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.5" hidden="1">
+    <row r="2" spans="1:4" ht="28.5" hidden="1">
       <c r="A2" s="42" t="s">
         <v>69</v>
       </c>
@@ -2681,7 +2711,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="42.75" hidden="1">
+    <row r="3" spans="1:4" ht="42.75" hidden="1">
       <c r="A3" s="42" t="s">
         <v>70</v>
       </c>
@@ -2693,7 +2723,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.5">
+    <row r="4" spans="1:4" ht="28.5">
       <c r="A4" s="42" t="s">
         <v>71</v>
       </c>
@@ -2707,7 +2737,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.5">
+    <row r="5" spans="1:4" ht="28.5">
       <c r="A5" s="42" t="s">
         <v>72</v>
       </c>
@@ -2721,7 +2751,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.5">
+    <row r="6" spans="1:4" ht="28.5">
       <c r="A6" s="42" t="s">
         <v>73</v>
       </c>
@@ -2735,7 +2765,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25">
+    <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="42" t="s">
         <v>74</v>
       </c>
@@ -2749,7 +2779,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25">
+    <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="42" t="s">
         <v>75</v>
       </c>
@@ -2759,11 +2789,11 @@
       <c r="C8" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="62" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1">
+    <row r="9" spans="1:4" ht="13.5" customHeight="1">
       <c r="A9" s="42" t="s">
         <v>77</v>
       </c>
@@ -2773,9 +2803,9 @@
       <c r="C9" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="62"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1">
+      <c r="D9" s="63"/>
+    </row>
+    <row r="10" spans="1:4" ht="13.5" customHeight="1">
       <c r="A10" s="42" t="s">
         <v>78</v>
       </c>
@@ -2785,9 +2815,9 @@
       <c r="C10" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="D10" s="62"/>
-    </row>
-    <row r="11" spans="1:5" ht="13.5" customHeight="1">
+      <c r="D10" s="63"/>
+    </row>
+    <row r="11" spans="1:4" ht="13.5" customHeight="1">
       <c r="A11" s="42" t="s">
         <v>79</v>
       </c>
@@ -2797,9 +2827,9 @@
       <c r="C11" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="63"/>
-    </row>
-    <row r="12" spans="1:5" ht="114">
+      <c r="D11" s="64"/>
+    </row>
+    <row r="12" spans="1:4" ht="114">
       <c r="A12" s="42" t="s">
         <v>97</v>
       </c>
@@ -2813,7 +2843,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="142.5">
+    <row r="13" spans="1:4" ht="142.5">
       <c r="A13" s="42" t="s">
         <v>80</v>
       </c>
@@ -2827,7 +2857,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.5">
+    <row r="14" spans="1:4" ht="28.5">
       <c r="A14" s="42" t="s">
         <v>81</v>
       </c>
@@ -2841,7 +2871,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.25">
+    <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="42" t="s">
         <v>0</v>
       </c>
@@ -2855,108 +2885,123 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25">
+    <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25">
+      <c r="A17" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B17" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C17" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D17" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="E17" s="74" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A17" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="73"/>
     </row>
     <row r="18" spans="1:5" ht="13.5" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>196</v>
+        <v>84</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>198</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D18" s="63"/>
-      <c r="E18" s="73"/>
+      <c r="E18" s="74"/>
     </row>
     <row r="19" spans="1:5" ht="13.5" customHeight="1">
       <c r="A19" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="64"/>
+      <c r="E19" s="74"/>
+    </row>
+    <row r="20" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A20" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B20" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C20" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D20" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="73"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="39" t="s">
+      <c r="E20" s="74"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-    </row>
-    <row r="22" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A22" s="64" t="s">
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+    </row>
+    <row r="23" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A23" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="67"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="67"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="69"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="70"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="70"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="70"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="73"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="A22:C25"/>
-    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A23:C26"/>
+    <mergeCell ref="E17:E20"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B16" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3055,32 +3100,32 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="79"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="80"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="80"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3686,48 +3731,48 @@
       <c r="K21" s="23"/>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="86"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="89"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="89"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="88"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="89"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="88"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="89"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="88"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="89"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="91"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="92"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -4024,48 +4069,48 @@
       <c r="K16" s="23"/>
     </row>
     <row r="17" spans="2:5" ht="14.25" customHeight="1">
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="86"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="88"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="89"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="91"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="92"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/chiloPro/sample-series/structure-books_sample.xlsx
+++ b/chiloPro/sample-series/structure-books_sample.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="204">
   <si>
     <t>cover</t>
     <phoneticPr fontId="3"/>
@@ -151,13 +151,6 @@
     <t>出力されるCHiLO Bookのファイル名の接頭辞</t>
     <rPh sb="22" eb="25">
       <t>セットウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>（必須）CHiLO BookのユニークID。</t>
-    <rPh sb="1" eb="3">
-      <t>ヒッス</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -390,14 +383,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>cover</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>temp_cover-image.jpg</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>book-title</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -596,10 +581,6 @@
   </si>
   <si>
     <t>output-name</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>identifier</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -915,10 +896,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>41fe5bb9-686f-47dd-8197-61fc9f817bcd</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ja</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1195,10 +1172,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>http://dev.chilos.jp/mod/quiz/view.php?id=1058&amp;amp;chiloflag=0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>TRUE</t>
   </si>
   <si>
@@ -1207,14 +1180,6 @@
   </si>
   <si>
     <t>test</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>epub3パッケージドキュメント（拡張子がopfのドキュメント）のunique-identifierに設定されます。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>001_cover_image_1.png</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1302,6 +1267,71 @@
     <rPh sb="47" eb="49">
       <t>キニュウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>urn:uuid:41fe5bb9-686f-47dd-8197-61fc9f817bcd</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（必須）CHiLO BookのユニークID。
+──────────────────
+epub3パッケージドキュメント（拡張子がopfのドキュメント）のunique-identierに設定されます。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>over</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>表紙画像
+―――――――――――――
+表紙画像のファイル名（表紙画像が無い場合は空白にしてください）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>001_cover_image_1.png</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>identifier（必須）</t>
+    <rPh sb="11" eb="13">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>riviced</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>改定日</t>
+    <rPh sb="0" eb="3">
+      <t>カイテイビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http://proxy.chilos.jp/q00101010</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1312,7 +1342,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1397,21 +1427,6 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1567,17 +1582,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1777,6 +1781,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1957,7 +1970,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1974,16 +1987,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2000,9 +2004,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="37" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -2045,17 +2046,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -2067,69 +2058,54 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2144,14 +2120,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="37" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="37" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2162,16 +2138,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="37" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2183,12 +2207,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2198,38 +2222,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2243,14 +2268,14 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2260,10 +2285,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2676,323 +2697,322 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.625" customWidth="1"/>
     <col min="3" max="3" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.75" style="36" customWidth="1"/>
+    <col min="4" max="4" width="75.75" style="27" customWidth="1"/>
     <col min="5" max="5" width="48.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="34">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="64"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="62">
+        <v>41530</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="64"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="36">
+        <v>42094</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="64"/>
+    </row>
+    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="65"/>
+    </row>
+    <row r="12" spans="1:5" ht="114" x14ac:dyDescent="0.15">
+      <c r="A12" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="142.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="43">
-        <v>1</v>
-      </c>
-      <c r="C1" s="41" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="75"/>
+    </row>
+    <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="64"/>
+      <c r="E18" s="75"/>
+    </row>
+    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="65"/>
+      <c r="E19" s="75"/>
+    </row>
+    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="75"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" hidden="1">
-      <c r="A2" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="42.75" hidden="1">
-      <c r="A3" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5">
-      <c r="A4" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5">
-      <c r="A5" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.5">
-      <c r="A6" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.25">
-      <c r="A7" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.25">
-      <c r="A8" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A9" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="63"/>
-    </row>
-    <row r="10" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A10" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="45">
-        <v>41530</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="63"/>
-    </row>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A11" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="64"/>
-    </row>
-    <row r="12" spans="1:4" ht="114">
-      <c r="A12" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="142.5">
-      <c r="A13" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.5">
-      <c r="A14" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>195</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.25">
-      <c r="A15" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.25">
-      <c r="A16" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25">
-      <c r="A17" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="74" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A18" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="74"/>
-    </row>
-    <row r="19" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A19" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="74"/>
-    </row>
-    <row r="20" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A20" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="74"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-    </row>
-    <row r="23" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A23" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="68"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="70"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="68"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="70"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="71"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="73"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+    </row>
+    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="69"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="71"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="69"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="71"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="72"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="74"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
-    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D7:D11"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="A23:C26"/>
-    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="E16:E20"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -3008,133 +3028,166 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47" style="2" customWidth="1"/>
-    <col min="4" max="5" width="37.875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="43.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.75" style="2" customWidth="1"/>
+    <col min="6" max="7" width="37.875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="57.75" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+    </row>
+    <row r="4" spans="1:7" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="57.75" thickTop="1">
-      <c r="A2" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="47.1" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" ht="128.25">
-      <c r="A4" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="29" t="s">
+      <c r="E4" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.5">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="D6" s="10"/>
-      <c r="E6" s="54"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="75" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="76"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F6" s="7"/>
+      <c r="G6" s="43"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="6"/>
+      <c r="C8" s="76" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" s="77"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="54"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="6"/>
       <c r="C9" s="79"/>
       <c r="D9" s="80"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="78"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="54"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C10" s="79"/>
       <c r="D10" s="80"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="78"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="54"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C11" s="79"/>
       <c r="D11" s="80"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="54"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C12" s="82"/>
       <c r="D12" s="83"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="54"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F13" s="55"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
-    <mergeCell ref="B8:D12"/>
+    <mergeCell ref="C8:E12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId3"/>
@@ -3149,639 +3202,622 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="19" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="12" customWidth="1"/>
-    <col min="5" max="5" width="40.625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="30.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="11" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="37.5" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="40.625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="30.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="37.5" style="8" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
-    <col min="12" max="16384" width="8.875" style="11"/>
+    <col min="12" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16" t="s">
+    <row r="18" spans="1:11" s="42" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="J16" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" s="25" customFormat="1">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="53" customFormat="1" ht="148.5">
-      <c r="A19" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="50" t="s">
+      <c r="J18" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="J19" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="K19" s="52"/>
-    </row>
-    <row r="20" spans="1:11" s="21" customFormat="1">
-      <c r="D20" s="22"/>
-      <c r="K20" s="23"/>
-    </row>
-    <row r="21" spans="1:11" s="21" customFormat="1">
-      <c r="D21" s="22"/>
-      <c r="K21" s="23"/>
-    </row>
-    <row r="22" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B22" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="B23" s="87"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="B24" s="87"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="B26" s="87"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="89"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="B27" s="87"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="B28" s="90"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="92"/>
+      <c r="K18" s="41"/>
+    </row>
+    <row r="19" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="18"/>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="18"/>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="90"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="90"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="90"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B25" s="88"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="90"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B26" s="88"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="90"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B27" s="91"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="93"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
-    <mergeCell ref="B22:E28"/>
+    <mergeCell ref="B21:E27"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="E17" r:id="rId1"/>
+    <hyperlink ref="E16" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3792,19 +3828,19 @@
           <x14:formula1>
             <xm:f>書籍構成シート選択用!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A17</xm:sqref>
+          <xm:sqref>A2:A16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>書籍構成シート選択用!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D17</xm:sqref>
+          <xm:sqref>D2:D16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>書籍構成シート選択用!$C$2:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J17</xm:sqref>
+          <xm:sqref>J2:J16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3818,304 +3854,287 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="19" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="12" customWidth="1"/>
-    <col min="5" max="5" width="40.625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="11" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="11" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="37.5" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="40.625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="37.5" style="8" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
-    <col min="12" max="16384" width="8.875" style="11"/>
+    <col min="12" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="34" t="s">
+    <row r="13" spans="1:11" s="42" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" s="25" customFormat="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="53" customFormat="1" ht="148.5">
-      <c r="A14" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="50" t="s">
+      <c r="I13" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J13" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="J14" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="52"/>
-    </row>
-    <row r="15" spans="1:11" s="21" customFormat="1">
-      <c r="D15" s="22"/>
-      <c r="K15" s="23"/>
-    </row>
-    <row r="16" spans="1:11" s="21" customFormat="1">
-      <c r="D16" s="22"/>
-      <c r="K16" s="23"/>
-    </row>
-    <row r="17" spans="2:5" ht="14.25" customHeight="1">
-      <c r="B17" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="87"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="87"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="87"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="90"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92"/>
+      <c r="K13" s="41"/>
+    </row>
+    <row r="14" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="18"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D15" s="18"/>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="87"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="90"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="90"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" s="88"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="90"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="90"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="91"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="93"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
-    <mergeCell ref="B17:E23"/>
+    <mergeCell ref="B16:E22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4127,19 +4146,19 @@
           <x14:formula1>
             <xm:f>書籍構成シート選択用!$C$2:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J12</xm:sqref>
+          <xm:sqref>J2:J11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>書籍構成シート選択用!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D12</xm:sqref>
+          <xm:sqref>D2:D11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>書籍構成シート選択用!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A12</xm:sqref>
+          <xm:sqref>A2:A11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4152,76 +4171,78 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" thickTop="1">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/chiloPro/sample-series/structure-books_sample.xlsx
+++ b/chiloPro/sample-series/structure-books_sample.xlsx
@@ -1274,12 +1274,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>（必須）CHiLO BookのユニークID。
-──────────────────
-epub3パッケージドキュメント（拡張子がopfのドキュメント）のunique-identierに設定されます。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <r>
       <t>c</t>
     </r>
@@ -1313,13 +1307,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>identifier（必須）</t>
-    <rPh sb="11" eb="13">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>riviced</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1332,6 +1319,16 @@
   </si>
   <si>
     <t>http://proxy.chilos.jp/q00101010</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>identifier</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CHiLO BookのユニークID。
+──────────────────
+epub3パッケージドキュメント（拡張子がopfのドキュメント）のunique-identierに設定されます。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1970,7 +1967,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2158,10 +2155,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -2286,6 +2279,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2796,7 +2797,7 @@
       <c r="C7" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="62" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2810,31 +2811,31 @@
       <c r="C8" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="64"/>
+      <c r="D8" s="63"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="62">
+      <c r="B9" s="61">
         <v>41530</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="64"/>
+      <c r="D9" s="63"/>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B10" s="36">
         <v>42094</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" s="64"/>
+        <v>200</v>
+      </c>
+      <c r="D10" s="63"/>
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="33" t="s">
@@ -2846,7 +2847,7 @@
       <c r="C11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="65"/>
+      <c r="D11" s="64"/>
     </row>
     <row r="12" spans="1:5" ht="114" x14ac:dyDescent="0.15">
       <c r="A12" s="33" t="s">
@@ -2917,7 +2918,7 @@
       <c r="D16" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="E16" s="75" t="s">
+      <c r="E16" s="74" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2931,10 +2932,10 @@
       <c r="C17" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="75"/>
+      <c r="E17" s="74"/>
     </row>
     <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="33" t="s">
@@ -2946,8 +2947,8 @@
       <c r="C18" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="75"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="74"/>
     </row>
     <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="33" t="s">
@@ -2959,8 +2960,8 @@
       <c r="C19" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="75"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="74"/>
     </row>
     <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="33" t="s">
@@ -2975,7 +2976,7 @@
       <c r="D20" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="75"/>
+      <c r="E20" s="74"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="30" t="s">
@@ -2985,26 +2986,26 @@
       <c r="D21" s="29"/>
     </row>
     <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="69"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="71"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="70"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="71"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="70"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="72"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="74"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="73"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -3034,30 +3035,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="43.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.25" style="2" customWidth="1"/>
     <col min="6" max="7" width="37.875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="C1" s="52" t="s">
         <v>24</v>
       </c>
+      <c r="D1" s="26" t="s">
+        <v>196</v>
+      </c>
       <c r="E1" s="26" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>25</v>
@@ -3068,51 +3069,51 @@
     </row>
     <row r="2" spans="1:7" ht="57.75" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="93" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="58" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="60"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>44</v>
@@ -3122,10 +3123,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
       <c r="F5" s="44"/>
       <c r="G5" s="45" t="s">
         <v>101</v>
@@ -3136,53 +3137,53 @@
       <c r="G6" s="43"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="6"/>
-      <c r="C8" s="76" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="75" t="s">
         <v>97</v>
       </c>
+      <c r="C8" s="76"/>
       <c r="D8" s="77"/>
-      <c r="E8" s="78"/>
       <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="6"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="79"/>
       <c r="D9" s="80"/>
-      <c r="E9" s="81"/>
       <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="78"/>
       <c r="C10" s="79"/>
       <c r="D10" s="80"/>
-      <c r="E10" s="81"/>
       <c r="F10" s="54"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="78"/>
       <c r="C11" s="79"/>
       <c r="D11" s="80"/>
-      <c r="E11" s="81"/>
       <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="81"/>
       <c r="C12" s="82"/>
       <c r="D12" s="83"/>
-      <c r="E12" s="84"/>
       <c r="F12" s="54"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F13" s="55"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
-    <mergeCell ref="C8:E12"/>
+    <mergeCell ref="B8:D12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -3701,7 +3702,7 @@
       <c r="C16" s="12"/>
       <c r="D16" s="48"/>
       <c r="E16" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -3767,48 +3768,48 @@
       <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="86"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="90"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="90"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="89"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="88"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="90"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="89"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="88"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="90"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="89"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="88"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="90"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="89"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="91"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="93"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="92"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -4088,48 +4089,48 @@
       <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="86"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="90"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="89"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="89"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="90"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="90"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="91"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="93"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/chiloPro/sample-series/structure-books_sample.xlsx
+++ b/chiloPro/sample-series/structure-books_sample.xlsx
@@ -1307,10 +1307,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>riviced</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>改定日</t>
     <rPh sb="0" eb="3">
       <t>カイテイビ</t>
@@ -1329,6 +1325,10 @@
     <t>CHiLO BookのユニークID。
 ──────────────────
 epub3パッケージドキュメント（拡張子がopfのドキュメント）のunique-identierに設定されます。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>rivised</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2179,6 +2179,14 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2279,14 +2287,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2797,7 +2797,7 @@
       <c r="C7" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="64" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       <c r="C8" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="63"/>
+      <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="33" t="s">
@@ -2823,19 +2823,19 @@
       <c r="C9" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="63"/>
+      <c r="D9" s="65"/>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="33" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B10" s="36">
         <v>42094</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="D10" s="63"/>
+        <v>199</v>
+      </c>
+      <c r="D10" s="65"/>
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="33" t="s">
@@ -2847,7 +2847,7 @@
       <c r="C11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="66"/>
     </row>
     <row r="12" spans="1:5" ht="114" x14ac:dyDescent="0.15">
       <c r="A12" s="33" t="s">
@@ -2918,7 +2918,7 @@
       <c r="D16" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="76" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2932,10 +2932,10 @@
       <c r="C17" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="74"/>
+      <c r="E17" s="76"/>
     </row>
     <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="33" t="s">
@@ -2947,8 +2947,8 @@
       <c r="C18" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="74"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="76"/>
     </row>
     <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="33" t="s">
@@ -2960,8 +2960,8 @@
       <c r="C19" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="74"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="76"/>
     </row>
     <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="33" t="s">
@@ -2976,7 +2976,7 @@
       <c r="D20" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="74"/>
+      <c r="E20" s="76"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="30" t="s">
@@ -2986,26 +2986,26 @@
       <c r="D21" s="29"/>
     </row>
     <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="68"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="70"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="68"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="70"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="71"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="73"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -3058,7 +3058,7 @@
         <v>196</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>25</v>
@@ -3080,7 +3080,7 @@
       <c r="D2" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="62" t="s">
         <v>195</v>
       </c>
       <c r="F2" s="58" t="s">
@@ -3095,7 +3095,7 @@
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
       <c r="D3" s="60"/>
-      <c r="E3" s="94"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="60"/>
       <c r="G3" s="60"/>
     </row>
@@ -3113,7 +3113,7 @@
         <v>197</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>44</v>
@@ -3145,36 +3145,36 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="77"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
       <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
       <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="78"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="80"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
       <c r="F10" s="54"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
       <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="81"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
       <c r="F12" s="54"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -3702,7 +3702,7 @@
       <c r="C16" s="12"/>
       <c r="D16" s="48"/>
       <c r="E16" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -3768,48 +3768,48 @@
       <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="91"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B23" s="87"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="91"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="87"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="91"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="91"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="87"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="89"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="91"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="90"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="92"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="94"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -4089,48 +4089,48 @@
       <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="87"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="91"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="87"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="91"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="87"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="91"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="87"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="91"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="94"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/chiloPro/sample-series/structure-books_sample.xlsx
+++ b/chiloPro/sample-series/structure-books_sample.xlsx
@@ -1322,13 +1322,13 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>rivised</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>CHiLO BookのユニークID。
 ──────────────────
-epub3パッケージドキュメント（拡張子がopfのドキュメント）のunique-identierに設定されます。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>rivised</t>
+epub3パッケージドキュメント（拡張子がopfのドキュメント）のidentierに設定されます。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" s="36">
         <v>42094</v>
@@ -3113,7 +3113,7 @@
         <v>197</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>44</v>

--- a/chiloPro/sample-series/structure-books_sample.xlsx
+++ b/chiloPro/sample-series/structure-books_sample.xlsx
@@ -18,7 +18,7 @@
     <sheet name="書籍構成シート" sheetId="38" r:id="rId4"/>
     <sheet name="書籍構成シート選択用" sheetId="35" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="194">
   <si>
     <t>cover</t>
     <phoneticPr fontId="3"/>
@@ -148,13 +148,6 @@
     <t>CC by-NC-ND</t>
   </si>
   <si>
-    <t>出力されるCHiLO Bookのファイル名の接頭辞</t>
-    <rPh sb="22" eb="25">
-      <t>セットウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>（必須）書籍の言語</t>
     <rPh sb="1" eb="3">
       <t>ヒッス</t>
@@ -189,20 +182,6 @@
     <t>シリーズの紹介文</t>
     <rPh sb="5" eb="8">
       <t>ショウカイブン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>common/やvol-n/ などの「必要な素材」の保存場所</t>
-    <rPh sb="28" eb="30">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>OutputBase/以下のCHiLO Bookの出力フォルダ</t>
-    <rPh sb="11" eb="13">
-      <t>イカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -438,38 +417,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>特に記載する必要はありません。
-ここにフォルダ名を記載すると、OutputBase/に、記載したフォルダ名でフォルダが作成され、そこにCHiLO Bookが出力されます。</t>
-    <rPh sb="0" eb="1">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ja, enなど、言語をRFC 5646形式で記載します。
 入力した言語は、epub3 パッケージドキュメントのdc:language に設定されます。</t>
     <rPh sb="9" eb="11">
@@ -567,21 +514,6 @@
   </si>
   <si>
     <t>ここで記載したバージョン情報は出力されるCHiLO Bookでは利用されません。</t>
-  </si>
-  <si>
-    <t>「必要な素材」が保存されているフォルダが、構造ファイル（structure-books.xlsx）と同じ場所に保存されている場合は、記載する必要はありません。</t>
-  </si>
-  <si>
-    <t>input-path</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>output-path</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>output-name</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>language</t>
@@ -813,44 +745,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>出力されるCHiLO Bookのファイル名の接頭に記載した文字が追加されます。
-空白にした場合接頭辞は「null」という文字が追加されます。</t>
-    <rPh sb="0" eb="2">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セットウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="47" eb="50">
-      <t>セットウジ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>CHiLO Bookの書籍タイトルは
 series-name &amp; " " &amp; 第n章 &amp; " " &amp;  book-title (book-listシートで定義）
 となります。
@@ -889,10 +783,6 @@
   </si>
   <si>
     <t>Web CHiLO Bookを書き出す場合は、入力してください。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>001</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -2370,13 +2260,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>248445</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>70334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>184147</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>138507</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2694,9 +2584,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2709,316 +2601,278 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B1" s="34">
         <v>1</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D1" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="C4" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="65"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>104</v>
+      <c r="B6" s="61">
+        <v>41530</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+      <c r="D6" s="65"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>72</v>
+        <v>192</v>
+      </c>
+      <c r="B7" s="36">
+        <v>42094</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>60</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="D7" s="65"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="66"/>
+    </row>
+    <row r="9" spans="1:5" ht="114" x14ac:dyDescent="0.15">
+      <c r="A9" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="142.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="76"/>
+    </row>
+    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="65"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="33" t="s">
+      <c r="D15" s="65"/>
+      <c r="E15" s="76"/>
+    </row>
+    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="61">
-        <v>41530</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="65"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="B10" s="36">
-        <v>42094</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="65"/>
-    </row>
-    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="33" t="s">
+      <c r="B16" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="66"/>
-    </row>
-    <row r="12" spans="1:5" ht="114" x14ac:dyDescent="0.15">
-      <c r="A12" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="142.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="33" t="s">
+      <c r="D16" s="66"/>
+      <c r="E16" s="76"/>
+    </row>
+    <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="33" t="s">
+      <c r="B17" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="31" t="s">
+      <c r="D17" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="76"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+    </row>
+    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="67" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="76"/>
-    </row>
-    <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="76"/>
-    </row>
-    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="76"/>
-    </row>
-    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="76"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="69"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-    </row>
-    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="72"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="70"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="73"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="75"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="70"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="72"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="73"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="75"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A23:C26"/>
-    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A20:C23"/>
+    <mergeCell ref="E13:E17"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B16" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -3049,16 +2903,16 @@
         <v>17</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C1" s="52" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>25</v>
@@ -3069,25 +2923,25 @@
     </row>
     <row r="2" spans="1:7" ht="57.75" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="56" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F2" s="58" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3101,25 +2955,25 @@
     </row>
     <row r="4" spans="1:7" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -3129,7 +2983,7 @@
       <c r="D5" s="44"/>
       <c r="F5" s="44"/>
       <c r="G5" s="45" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -3146,7 +3000,7 @@
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="77" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="79"/>
@@ -3255,7 +3109,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -3263,26 +3117,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>11</v>
@@ -3294,26 +3148,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>11</v>
@@ -3325,26 +3179,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>123</v>
-      </c>
       <c r="F4" s="12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>11</v>
@@ -3356,26 +3210,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>11</v>
@@ -3387,26 +3241,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>11</v>
@@ -3418,26 +3272,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>11</v>
@@ -3449,26 +3303,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>11</v>
@@ -3480,26 +3334,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>11</v>
@@ -3511,26 +3365,26 @@
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>11</v>
@@ -3542,26 +3396,26 @@
         <v>1</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>11</v>
@@ -3573,26 +3427,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>11</v>
@@ -3604,26 +3458,26 @@
         <v>1</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>11</v>
@@ -3635,26 +3489,26 @@
         <v>1</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>11</v>
@@ -3666,26 +3520,26 @@
         <v>1</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>11</v>
@@ -3697,12 +3551,12 @@
         <v>16</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="48"/>
       <c r="E16" s="13" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -3723,39 +3577,39 @@
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
       <c r="K17" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="42" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A18" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="E18" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="G18" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="H18" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" s="39" t="s">
         <v>49</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="J18" s="39" t="s">
-        <v>52</v>
       </c>
       <c r="K18" s="41"/>
     </row>
@@ -3769,7 +3623,7 @@
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="86" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C21" s="87"/>
       <c r="D21" s="87"/>
@@ -3907,7 +3761,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -4044,39 +3898,39 @@
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
       <c r="K12" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="42" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A13" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="E13" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="G13" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="H13" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="J13" s="39" t="s">
         <v>49</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>52</v>
       </c>
       <c r="K13" s="41"/>
     </row>
@@ -4090,7 +3944,7 @@
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="86" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C16" s="87"/>
       <c r="D16" s="87"/>
@@ -4197,7 +4051,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>11</v>
@@ -4205,7 +4059,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14" t="s">

--- a/chiloPro/sample-series/structure-books_sample.xlsx
+++ b/chiloPro/sample-series/structure-books_sample.xlsx
@@ -1212,13 +1212,13 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>rivised</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>CHiLO BookのユニークID。
 ──────────────────
 epub3パッケージドキュメント（拡張子がopfのドキュメント）のidentierに設定されます。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>revised</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2586,9 +2586,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2681,7 +2679,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="33" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B7" s="36">
         <v>42094</v>
@@ -2967,7 +2965,7 @@
         <v>187</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>41</v>

--- a/chiloPro/sample-series/structure-books_sample.xlsx
+++ b/chiloPro/sample-series/structure-books_sample.xlsx
@@ -1197,13 +1197,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>改定日</t>
-    <rPh sb="0" eb="3">
-      <t>カイテイビ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>http://proxy.chilos.jp/q00101010</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1219,6 +1212,16 @@
   </si>
   <si>
     <t>revised</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>改訂日</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2679,13 +2682,13 @@
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B7" s="36">
         <v>42094</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D7" s="65"/>
     </row>
@@ -2910,7 +2913,7 @@
         <v>186</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>25</v>
@@ -2965,7 +2968,7 @@
         <v>187</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>41</v>
@@ -3554,7 +3557,7 @@
       <c r="C16" s="12"/>
       <c r="D16" s="48"/>
       <c r="E16" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>

--- a/chiloPro/sample-series/structure-books_sample.xlsx
+++ b/chiloPro/sample-series/structure-books_sample.xlsx
@@ -1215,12 +1215,12 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>改訂日</t>
-    <rPh sb="0" eb="2">
-      <t>カイテイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
+    <t>改訂版発行日</t>
+    <rPh sb="0" eb="3">
+      <t>カイテイバン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ハッコウビ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>

--- a/chiloPro/sample-series/structure-books_sample.xlsx
+++ b/chiloPro/sample-series/structure-books_sample.xlsx
@@ -43,9 +43,6 @@
     <t>epub-download-url</t>
   </si>
   <si>
-    <t>page</t>
-  </si>
-  <si>
     <t>main</t>
   </si>
   <si>
@@ -94,16 +91,6 @@
   <si>
     <t>page-type（必須）</t>
     <rPh sb="10" eb="12">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>section（B2以降必須）</t>
-    <rPh sb="10" eb="12">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
       <t>ヒッス</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -278,23 +265,6 @@
 test…テストページ</t>
     <rPh sb="31" eb="33">
       <t>カイセツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>セクションタイトル
-────────</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ページタイトル
-───────
-page-typeがtestの場合は記載する必要がありません</t>
-    <rPh sb="34" eb="36">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1221,6 +1191,29 @@
     </rPh>
     <rPh sb="3" eb="6">
       <t>ハッコウビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>chapter（B2以降必須）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>チャプタータイトル
+────────</t>
+  </si>
+  <si>
+    <t>セクションタイトル
+───────
+page-typeがtestの場合は記載する必要がありません</t>
+    <rPh sb="36" eb="38">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2602,148 +2595,148 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B1" s="34">
         <v>1</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="33" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="33" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" s="65"/>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B6" s="61">
         <v>41530</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D6" s="65"/>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B7" s="36">
         <v>42094</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D7" s="65"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="66"/>
     </row>
     <row r="9" spans="1:5" ht="114" x14ac:dyDescent="0.15">
       <c r="A9" s="33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A10" s="33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A11" s="33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -2751,98 +2744,98 @@
         <v>0</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="33" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E13" s="76" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="33" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E14" s="76"/>
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="33" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D15" s="65"/>
       <c r="E15" s="76"/>
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D16" s="66"/>
       <c r="E16" s="76"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E17" s="76"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
     </row>
     <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="67" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B20" s="68"/>
       <c r="C20" s="69"/>
@@ -2901,22 +2894,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>190</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
@@ -2924,25 +2917,25 @@
     </row>
     <row r="2" spans="1:7" ht="57.75" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="58" t="s">
         <v>98</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="E2" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2956,25 +2949,25 @@
     </row>
     <row r="4" spans="1:7" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D4" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>191</v>
-      </c>
       <c r="F4" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -2984,7 +2977,7 @@
       <c r="D5" s="44"/>
       <c r="F5" s="44"/>
       <c r="G5" s="45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -3001,7 +2994,7 @@
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="77" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="79"/>
@@ -3060,7 +3053,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3080,37 +3075,37 @@
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -3118,29 +3113,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -3149,29 +3144,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" s="10"/>
     </row>
@@ -3180,29 +3175,29 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" s="10"/>
     </row>
@@ -3211,29 +3206,29 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="10"/>
     </row>
@@ -3242,29 +3237,29 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K6" s="10"/>
     </row>
@@ -3273,29 +3268,29 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" s="10"/>
     </row>
@@ -3304,29 +3299,29 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" s="10"/>
     </row>
@@ -3335,29 +3330,29 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K9" s="10"/>
     </row>
@@ -3366,29 +3361,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10" s="10"/>
     </row>
@@ -3397,29 +3392,29 @@
         <v>1</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11" s="10"/>
     </row>
@@ -3428,29 +3423,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K12" s="10"/>
     </row>
@@ -3459,29 +3454,29 @@
         <v>1</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K13" s="10"/>
     </row>
@@ -3490,29 +3485,29 @@
         <v>1</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K14" s="10"/>
     </row>
@@ -3521,43 +3516,43 @@
         <v>1</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="48"/>
       <c r="E16" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -3578,39 +3573,39 @@
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
       <c r="K17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="42" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A18" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="G18" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="H18" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" s="39" t="s">
         <v>45</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="J18" s="39" t="s">
-        <v>49</v>
       </c>
       <c r="K18" s="41"/>
     </row>
@@ -3624,7 +3619,7 @@
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="86" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C21" s="87"/>
       <c r="D21" s="87"/>
@@ -3732,37 +3727,37 @@
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -3899,39 +3894,39 @@
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
       <c r="K12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="42" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A13" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="G13" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="H13" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="J13" s="39" t="s">
         <v>45</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>49</v>
       </c>
       <c r="K13" s="41"/>
     </row>
@@ -3945,7 +3940,7 @@
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="86" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C16" s="87"/>
       <c r="D16" s="87"/>
@@ -4038,61 +4033,61 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">

--- a/chiloPro/sample-series/structure-books_sample.xlsx
+++ b/chiloPro/sample-series/structure-books_sample.xlsx
@@ -18,7 +18,7 @@
     <sheet name="書籍構成シート" sheetId="38" r:id="rId4"/>
     <sheet name="書籍構成シート選択用" sheetId="35" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="195">
   <si>
     <t>cover</t>
     <phoneticPr fontId="3"/>
@@ -760,16 +760,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>日置慎治</t>
-    <rPh sb="0" eb="2">
-      <t>ヒオキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シンジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>はじめての情報ネットワークⅠ</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1215,6 +1205,14 @@
     <rPh sb="40" eb="42">
       <t>ヒツヨウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NPO CCC-TIES</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>sample-series</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2582,7 +2580,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2626,7 +2626,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>30</v>
@@ -2640,7 +2640,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>35</v>
@@ -2669,19 +2669,19 @@
         <v>41530</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" s="65"/>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B7" s="36">
         <v>42094</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D7" s="65"/>
     </row>
@@ -2702,7 +2702,7 @@
         <v>81</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>32</v>
@@ -2730,7 +2730,7 @@
         <v>65</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>34</v>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>80</v>
@@ -2755,16 +2755,16 @@
     </row>
     <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="C13" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="D13" s="50" t="s">
         <v>179</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>180</v>
       </c>
       <c r="E13" s="76" t="s">
         <v>88</v>
@@ -2775,7 +2775,7 @@
         <v>66</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>67</v>
@@ -2790,7 +2790,7 @@
         <v>68</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>69</v>
@@ -2803,7 +2803,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>71</v>
@@ -2816,7 +2816,7 @@
         <v>72</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>73</v>
@@ -2903,10 +2903,10 @@
         <v>22</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>23</v>
@@ -2917,25 +2917,25 @@
     </row>
     <row r="2" spans="1:7" ht="57.75" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="C2" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="D2" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="58" t="s">
+      <c r="G2" s="58" t="s">
         <v>97</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2958,10 +2958,10 @@
         <v>49</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>39</v>
@@ -3078,10 +3078,10 @@
         <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>21</v>
@@ -3113,26 +3113,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -3144,26 +3144,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -3175,26 +3175,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -3206,26 +3206,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -3237,26 +3237,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -3268,26 +3268,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -3299,26 +3299,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>128</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -3330,26 +3330,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>133</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
@@ -3361,26 +3361,26 @@
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>10</v>
@@ -3392,26 +3392,26 @@
         <v>1</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="12" t="s">
         <v>143</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>144</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>10</v>
@@ -3423,26 +3423,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="G12" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>10</v>
@@ -3454,26 +3454,26 @@
         <v>1</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>154</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>10</v>
@@ -3485,26 +3485,26 @@
         <v>1</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D14" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="F14" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="G14" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>159</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>10</v>
@@ -3516,26 +3516,26 @@
         <v>1</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="F15" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>10</v>
@@ -3547,12 +3547,12 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="48"/>
       <c r="E16" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -3581,10 +3581,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="39" t="s">
         <v>192</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>193</v>
       </c>
       <c r="D18" s="40" t="s">
         <v>42</v>
@@ -3602,7 +3602,7 @@
         <v>48</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>45</v>
@@ -3730,10 +3730,10 @@
         <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>21</v>
@@ -3902,10 +3902,10 @@
         <v>41</v>
       </c>
       <c r="B13" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="39" t="s">
         <v>192</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>193</v>
       </c>
       <c r="D13" s="40" t="s">
         <v>42</v>
@@ -3923,7 +3923,7 @@
         <v>48</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J13" s="39" t="s">
         <v>45</v>
@@ -4047,7 +4047,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>10</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14" t="s">

--- a/chiloPro/sample-series/structure-books_sample.xlsx
+++ b/chiloPro/sample-series/structure-books_sample.xlsx
@@ -1212,7 +1212,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>sample-series</t>
+    <t>sample</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2580,9 +2580,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/chiloPro/sample-series/structure-books_sample.xlsx
+++ b/chiloPro/sample-series/structure-books_sample.xlsx
@@ -360,21 +360,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Javascriptのファイル名
-─────
-現在のバージョンでは対応しておりません。</t>
-    <rPh sb="15" eb="16">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>各CHiLO Bookの概要
 ────────────
 「はじめにお読みください」セクションの「ブック概要」ページに挿入されます。</t>
@@ -1213,6 +1198,13 @@
   </si>
   <si>
     <t>sample</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Javascriptのファイル名
+─────
+ページに組み込むJavascriptのファイル名を記入してください。
+※Standard CHiLO Bookには対応しておりません。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2593,66 +2585,66 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="34">
         <v>1</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>36</v>
@@ -2661,34 +2653,34 @@
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="61">
         <v>41530</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D6" s="65"/>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B7" s="36">
         <v>42094</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D7" s="65"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>31</v>
@@ -2697,44 +2689,44 @@
     </row>
     <row r="9" spans="1:5" ht="114" x14ac:dyDescent="0.15">
       <c r="A9" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A10" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A11" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -2742,98 +2734,98 @@
         <v>0</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="C13" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="D13" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="50" t="s">
-        <v>179</v>
-      </c>
       <c r="E13" s="76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>67</v>
-      </c>
       <c r="D14" s="64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="76"/>
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>68</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>69</v>
       </c>
       <c r="D15" s="65"/>
       <c r="E15" s="76"/>
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="32" t="s">
         <v>70</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>71</v>
       </c>
       <c r="D16" s="66"/>
       <c r="E16" s="76"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>73</v>
-      </c>
       <c r="D17" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="76"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
     </row>
     <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="68"/>
       <c r="C20" s="69"/>
@@ -2901,10 +2893,10 @@
         <v>22</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>23</v>
@@ -2915,25 +2907,25 @@
     </row>
     <row r="2" spans="1:7" ht="57.75" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="C2" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="D2" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="58" t="s">
+      <c r="G2" s="58" t="s">
         <v>96</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2950,16 +2942,16 @@
         <v>47</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>39</v>
@@ -2975,7 +2967,7 @@
       <c r="D5" s="44"/>
       <c r="F5" s="44"/>
       <c r="G5" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -2992,7 +2984,7 @@
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="79"/>
@@ -3051,9 +3043,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3064,7 +3054,7 @@
     <col min="5" max="5" width="40.625" style="8" customWidth="1"/>
     <col min="6" max="6" width="30.625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="25" style="8" customWidth="1"/>
     <col min="9" max="9" width="37.5" style="8" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
@@ -3076,10 +3066,10 @@
         <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>21</v>
@@ -3111,26 +3101,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -3142,26 +3132,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>105</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -3173,26 +3163,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>109</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -3204,26 +3194,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -3235,26 +3225,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>117</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -3266,26 +3256,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -3297,26 +3287,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>127</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -3328,26 +3318,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>132</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
@@ -3359,26 +3349,26 @@
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>137</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>10</v>
@@ -3390,26 +3380,26 @@
         <v>1</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>10</v>
@@ -3421,26 +3411,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="G12" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>10</v>
@@ -3452,26 +3442,26 @@
         <v>1</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="12" t="s">
         <v>152</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>153</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>10</v>
@@ -3483,26 +3473,26 @@
         <v>1</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="F14" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="G14" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>158</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>10</v>
@@ -3514,26 +3504,26 @@
         <v>1</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="F15" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>163</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>10</v>
@@ -3545,12 +3535,12 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="48"/>
       <c r="E16" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -3579,16 +3569,16 @@
         <v>41</v>
       </c>
       <c r="B18" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="39" t="s">
         <v>191</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>192</v>
       </c>
       <c r="D18" s="40" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F18" s="39" t="s">
         <v>43</v>
@@ -3597,10 +3587,10 @@
         <v>44</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>45</v>
@@ -3617,7 +3607,7 @@
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="87"/>
       <c r="D21" s="87"/>
@@ -3716,7 +3706,7 @@
     <col min="5" max="5" width="40.625" style="8" customWidth="1"/>
     <col min="6" max="6" width="25.5" style="8" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="25" style="8" customWidth="1"/>
     <col min="9" max="9" width="37.5" style="8" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
@@ -3728,10 +3718,10 @@
         <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>21</v>
@@ -3900,16 +3890,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="39" t="s">
         <v>191</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>192</v>
       </c>
       <c r="D13" s="40" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" s="39" t="s">
         <v>43</v>
@@ -3918,10 +3908,10 @@
         <v>44</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J13" s="39" t="s">
         <v>45</v>
@@ -3938,7 +3928,7 @@
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="87"/>
       <c r="D16" s="87"/>
@@ -4045,7 +4035,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>10</v>
@@ -4053,7 +4043,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14" t="s">

--- a/chiloPro/sample-series/structure-books_sample.xlsx
+++ b/chiloPro/sample-series/structure-books_sample.xlsx
@@ -23,20 +23,17 @@
     <definedName name="text">#REF!</definedName>
     <definedName name="type">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="155">
   <si>
     <t>version</t>
     <phoneticPr fontId="1"/>
@@ -82,17 +79,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fb:admins</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>google-analytics-id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>epub-download-url</t>
-  </si>
-  <si>
     <t>page-type</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -125,10 +111,6 @@
   </si>
   <si>
     <t>test</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>series-title</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -164,110 +146,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Administration version of structure file </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>The version information entered here will not be used in the output CHiLO Book.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（Required）Language used in the book</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The language will be listed as "ja", "en according to the RFC 5646 format.
-The input language will be configured as dc:language of the epub3 package doccument.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>（Required）Name of the author</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>It will be inserted in the "Copyright" page. Conform with the specified sheet name in author.xlsx.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Name of issuer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>It will be inserted in the"Copyright" page. When left blank, this item will not apear on the list.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Name of editor</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Owner of copyright</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（Required）Name of series of CHiLO Book</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The title of the CHiLO Book will be 
-series-name &amp; " " &amp; Chapter n &amp; " " &amp;  book-title (defined in book-list sheet）.
-This Book title will be set in dc:title of epub3 packaged document as well as the "Copyright " page.
-Also, it will be inserted in the name file of Hybrid CHiLOBook. 
-The name of the file is: output-name &amp; series-name &amp; - &amp; vol-n &amp; .epub3.                                                                                                                            </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Introduction of the series</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>It will be inserted in the "Introducton of theSeries" page of the "Readme" section.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>URL of the series introduction page</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Enter when there is a homepage for introducing the series.
-It will be inserted below the introduction text of the "Introduction of the Series" page.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Name of "B. Inside cover" file of "essential materials"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>It will be used as the inside cover image for each section.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>fb:admins specified in OGP of Web CHiLO Book</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>When OGP is not set, there is no need to enter.
-For more details about OGP, go to http://ogp.me.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>fb:app_id specified in OGP of Web CHiLO Book</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Website name specified in OGP of Web CHiLO Book</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tracking ID utilized in Web CHiLO Book</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">When the CHiLO Book is not intended for Google custom search, there is no need to enter. </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>When outputting Web CHiLO Book, necessary to enter.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -295,13 +178,6 @@
 ────────────
 You are able to specify any SNS, such as Facebook, Twitter, or Moodle forum, as CHiLO Community.
  When left blank, the community icon will not be displayed.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>URL for downloading Hybrid CHiLO Book
-─────────────────
-URL for downloading Hybrid CHiLO Book displayed on Web CHiLO Book
-When left blank, the download icon will not be displayed.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -368,47 +244,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（Required）Issued date of first edition</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deploy-url</t>
-  </si>
-  <si>
-    <t>fb-app-id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>og:site_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>page-type（required）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>vol（required）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>over</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Specified URL in OGP of Web CHiLO Book</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -422,14 +262,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Date of revision</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>To upload Web CHiLO Book, enter the part before "/vol-x-html/"of the URL.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Unique ID of CHiLO Book
 ──────────────────
 It will be configured as identifier of epub3 pakage document (an opf format document).</t>
@@ -462,13 +294,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>File name of Javascript
-─────
-Enter the file name of Javascript you want to embed in the page.
-※Not Standard CHiLO Book-capable.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>en</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -523,9 +348,6 @@
   </si>
   <si>
     <t>h015_0101.txt</t>
-  </si>
-  <si>
-    <t>chiloapi_epub.js</t>
   </si>
   <si>
     <t>m015_0102.mp4</t>
@@ -718,6 +540,71 @@
   </si>
   <si>
     <t>81ZU8egnDt0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administration version of structure file </t>
+  </si>
+  <si>
+    <t>Language used in the book</t>
+  </si>
+  <si>
+    <t>* Required
+* The language will be listed as "ja", "en" according to the RFC 5646 format.</t>
+  </si>
+  <si>
+    <t>Name of the sheet created in "author.xlsx".</t>
+  </si>
+  <si>
+    <t>* Required</t>
+  </si>
+  <si>
+    <t>Name of issuer</t>
+  </si>
+  <si>
+    <t>* Required
+* It will be inserted in the"Copyright" page. When left blank, this item will not apear on the list.</t>
+  </si>
+  <si>
+    <t>Name of editor</t>
+  </si>
+  <si>
+    <t>Issued date of first edition</t>
+  </si>
+  <si>
+    <t>Date of revision</t>
+  </si>
+  <si>
+    <t>Owner of copyright</t>
+  </si>
+  <si>
+    <t>Name of series of CHiLO Book</t>
+  </si>
+  <si>
+    <t>Introduction of the series</t>
+  </si>
+  <si>
+    <t>* It will be inserted in the "Introducton" page of the "Readme" section.</t>
+  </si>
+  <si>
+    <t>* It will be inserted below the introduction text of the "Introduction" page.</t>
+  </si>
+  <si>
+    <t>* It will be used as the inside cover image for each section.</t>
+  </si>
+  <si>
+    <t>book-title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>book-cover</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">File name of Javascript
+─────
+Enter the file name of Javascript you want to embed in the page.
+</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -727,7 +614,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -826,13 +713,13 @@
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color theme="2" tint="-0.499984740745262"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -840,9 +727,17 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0" tint="-0.499984740745262"/>
+      <color theme="2" tint="-0.499984740745262"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -879,7 +774,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -888,34 +783,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="hair">
         <color auto="1"/>
@@ -950,43 +817,10 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1171,6 +1005,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1306,46 +1153,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -1373,99 +1199,64 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="37" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="37" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1473,21 +1264,95 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="37" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="37" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1498,35 +1363,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1537,22 +1393,22 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1562,24 +1418,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1905,7 +1743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
@@ -1918,430 +1756,341 @@
     <col min="5" max="5" width="48.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="14.25">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="47">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="40"/>
+    </row>
+    <row r="2" spans="1:4" ht="37.5" customHeight="1">
+      <c r="A2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.25">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>40</v>
+      <c r="B4" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>141</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25">
-      <c r="A5" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25">
+      <c r="A5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="63"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.25">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="62"/>
+    </row>
+    <row r="6" spans="1:4" ht="14.25">
+      <c r="A6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="45">
         <v>42249</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="63"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.25">
-      <c r="A7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="63"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="C6" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="62"/>
+    </row>
+    <row r="7" spans="1:4" ht="14.25">
+      <c r="A7" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="62"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="64"/>
-    </row>
-    <row r="9" spans="1:5" ht="85.5">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="62"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.25">
+      <c r="A9" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="270.75">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="270.75">
+      <c r="A10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.5">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25">
+      <c r="A11" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.25">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25">
+      <c r="A12" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.25">
-      <c r="A13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="65" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.25">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="65"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.25">
-      <c r="A15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="65"/>
-    </row>
-    <row r="16" spans="1:5" ht="14.25">
-      <c r="A16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65"/>
-    </row>
-    <row r="17" spans="1:5" ht="14.25">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="65"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="56"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="56"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="59"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
+      <c r="B12" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="59"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="4">
-    <mergeCell ref="A19:C22"/>
+  <mergeCells count="2">
+    <mergeCell ref="A14:C17"/>
     <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E13:E17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="56.125" customWidth="1"/>
     <col min="3" max="3" width="39.375" customWidth="1"/>
-    <col min="4" max="4" width="32.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="32.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="46.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.25" customWidth="1"/>
-    <col min="7" max="7" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1">
-      <c r="A1" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="51" customFormat="1" ht="37.5" customHeight="1" thickTop="1">
-      <c r="A2" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-    </row>
-    <row r="3" spans="1:7" s="51" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-    </row>
-    <row r="4" spans="1:7" s="51" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="114">
-      <c r="A5" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="28.5">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="43"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" ht="13.5">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71"/>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
-      <c r="F13" s="22"/>
+    <row r="1" spans="1:6" s="38" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="38" customFormat="1" ht="37.5" customHeight="1" thickTop="1">
+      <c r="A2" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="33"/>
+    </row>
+    <row r="3" spans="1:6" s="38" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A3" s="34"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33"/>
+    </row>
+    <row r="4" spans="1:6" s="38" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="114">
+      <c r="A5" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="30"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" ht="13.5">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
+      <c r="F13" s="16"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
     <mergeCell ref="B9:D13"/>
   </mergeCells>
@@ -2373,590 +2122,564 @@
     <col min="8" max="8" width="27.75" customWidth="1"/>
     <col min="9" max="9" width="31.25" customWidth="1"/>
     <col min="10" max="10" width="15.625" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="14"/>
+    <col min="11" max="11" width="8.875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickTop="1">
+      <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="F4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickTop="1">
-      <c r="A2" s="8" t="s">
+      <c r="B8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F11" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="G11" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="D12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="F12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="G12" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="D13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="13"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="F13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="G13" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="B14" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" s="16" customFormat="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="17" customFormat="1" ht="189">
+      <c r="A20" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="B20" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="18"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="1:11" s="22" customFormat="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="23" customFormat="1" ht="189">
-      <c r="A20" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" s="35" customFormat="1">
-      <c r="D21" s="36"/>
-      <c r="K21" s="37"/>
-    </row>
-    <row r="22" spans="1:11" s="35" customFormat="1">
-      <c r="D22" s="36"/>
-      <c r="K22" s="37"/>
-    </row>
-    <row r="23" spans="1:11" s="22" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B23" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="77"/>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="1:11" s="22" customFormat="1">
-      <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="80"/>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="1:11" s="22" customFormat="1">
-      <c r="B25" s="78"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="80"/>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="1:11" s="22" customFormat="1">
-      <c r="B26" s="78"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="80"/>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="1:11" s="22" customFormat="1">
-      <c r="B27" s="78"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="80"/>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:11" s="22" customFormat="1">
-      <c r="B28" s="78"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="80"/>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:11" s="22" customFormat="1">
-      <c r="B29" s="81"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="83"/>
-      <c r="K29" s="12"/>
+      <c r="I20" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11" s="24" customFormat="1">
+      <c r="D21" s="25"/>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="1:11" s="24" customFormat="1">
+      <c r="D22" s="25"/>
+      <c r="K22" s="26"/>
+    </row>
+    <row r="23" spans="1:11" s="16" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B23" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="74"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" s="16" customFormat="1">
+      <c r="B24" s="75"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="77"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" s="16" customFormat="1">
+      <c r="B25" s="75"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="77"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" s="16" customFormat="1">
+      <c r="B26" s="75"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="77"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" s="16" customFormat="1">
+      <c r="B27" s="75"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="77"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" s="16" customFormat="1">
+      <c r="B28" s="75"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="77"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" s="16" customFormat="1">
+      <c r="B29" s="78"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80"/>
+      <c r="K29" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
     <mergeCell ref="B23:E29"/>
   </mergeCells>
@@ -3007,68 +2730,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" thickTop="1">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25" thickTop="1">
-      <c r="A2" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="26" t="b">
+      <c r="B2" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/chiloPro/sample-series/structure-books_sample.xlsx
+++ b/chiloPro/sample-series/structure-books_sample.xlsx
@@ -272,12 +272,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>chapter（required after B2）</t>
-  </si>
-  <si>
-    <t>section</t>
-  </si>
-  <si>
     <t>Chapter title
 ────────</t>
     <phoneticPr fontId="1"/>
@@ -604,6 +598,14 @@
 ─────
 Enter the file name of Javascript you want to embed in the page.
 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>section-title(required)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>topic</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1764,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D1" s="40"/>
     </row>
@@ -1773,13 +1775,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25">
@@ -1787,13 +1789,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
@@ -1801,13 +1803,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25">
@@ -1815,10 +1817,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D5" s="62"/>
     </row>
@@ -1830,7 +1832,7 @@
         <v>42249</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" s="62"/>
     </row>
@@ -1840,7 +1842,7 @@
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D7" s="62"/>
     </row>
@@ -1849,10 +1851,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D8" s="62"/>
     </row>
@@ -1861,13 +1863,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="270.75">
@@ -1875,13 +1877,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25">
@@ -1893,7 +1895,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25">
@@ -1901,13 +1903,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1965,13 +1967,13 @@
         <v>48</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E1" s="37" t="s">
         <v>50</v>
@@ -1985,14 +1987,14 @@
         <v>45</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F2" s="33"/>
     </row>
@@ -2130,10 +2132,10 @@
         <v>47</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>40</v>
@@ -2151,7 +2153,7 @@
         <v>18</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>19</v>
@@ -2162,357 +2164,357 @@
     </row>
     <row r="2" spans="1:11" ht="15" thickTop="1">
       <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="E3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -2588,13 +2590,13 @@
     </row>
     <row r="20" spans="1:11" s="17" customFormat="1" ht="189">
       <c r="A20" s="50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="52" t="s">
         <v>36</v>
@@ -2609,13 +2611,13 @@
         <v>39</v>
       </c>
       <c r="H20" s="51" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I20" s="51" t="s">
         <v>46</v>
       </c>
       <c r="J20" s="51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K20" s="10"/>
     </row>

--- a/chiloPro/sample-series/structure-books_sample.xlsx
+++ b/chiloPro/sample-series/structure-books_sample.xlsx
@@ -174,13 +174,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>URL of CHiLO Community
-────────────
-You are able to specify any SNS, such as Facebook, Twitter, or Moodle forum, as CHiLO Community.
- When left blank, the community icon will not be displayed.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Display CHiLO Community
 ──────────
 Choose "TRUE" to display link button for entering CHiLO Community.Fill in only when you want tp display the community-url.</t>
@@ -226,12 +219,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・This sheet is for entering information about each Book of the series. 
-・ Insert lines according to the number of Books and fill in required information.
-・The cells  not allowed to be modified, are protected. There are no passwords for its cancellation.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>vol-1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -555,10 +542,6 @@
     <t>Name of issuer</t>
   </si>
   <si>
-    <t>* Required
-* It will be inserted in the"Copyright" page. When left blank, this item will not apear on the list.</t>
-  </si>
-  <si>
     <t>Name of editor</t>
   </si>
   <si>
@@ -606,6 +589,24 @@
   </si>
   <si>
     <t>topic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Required
+* It will be inserted in the"Copyright" page. When left blank, this item will not apear on the list.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>URL of CHiLO Community
+────────────
+You are able to specify any SNS, such as Facebook, Twitter, or Moodle forum, as CHiLO Community.
+ When left blank, the community icon will not be displayed.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・This sheet is for entering information about each Book of the series. 
+・ Insert lines according to the number of Books and fill in required information.
+・The cells  not allowed to be modified, are protected. There are no passwords for its cancellation.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1155,7 +1156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1293,9 +1294,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1329,14 +1327,20 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1365,11 +1369,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1420,6 +1421,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1759,180 +1763,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47">
+      <c r="B1" s="46">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="53"/>
+    </row>
+    <row r="2" spans="1:4" ht="37.5" customHeight="1">
+      <c r="A2" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="40"/>
-    </row>
-    <row r="2" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A2" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="46" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="40" t="s">
+      <c r="C4" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25">
+      <c r="A5" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="63"/>
+    </row>
+    <row r="6" spans="1:4" ht="14.25">
+      <c r="A6" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="44">
+        <v>42249</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="63"/>
+    </row>
+    <row r="7" spans="1:4" ht="14.25">
+      <c r="A7" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="63"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="63"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.25">
+      <c r="A9" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="53" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A4" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25">
-      <c r="A5" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="47" t="s">
+    <row r="10" spans="1:4" ht="270.75">
+      <c r="A10" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="62"/>
-    </row>
-    <row r="6" spans="1:4" ht="14.25">
-      <c r="A6" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="45">
-        <v>42249</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="62"/>
-    </row>
-    <row r="7" spans="1:4" ht="14.25">
-      <c r="A7" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="41" t="s">
+      <c r="C10" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="62"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="41" t="s">
+      <c r="D10" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="62"/>
-    </row>
-    <row r="9" spans="1:4" ht="14.25">
-      <c r="A9" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="270.75">
-      <c r="A10" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="11" spans="1:4" ht="14.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="40" t="s">
-        <v>148</v>
+      <c r="D11" s="53" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="47" t="s">
-        <v>62</v>
+      <c r="B12" s="46" t="s">
+        <v>60</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>149</v>
+      <c r="D12" s="53" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -1964,19 +1968,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="38" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>22</v>
@@ -1984,17 +1988,17 @@
     </row>
     <row r="2" spans="1:6" s="38" customFormat="1" ht="37.5" customHeight="1" thickTop="1">
       <c r="A2" s="27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" s="33"/>
     </row>
@@ -2015,23 +2019,23 @@
       <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="114">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>35</v>
+      <c r="F5" s="52" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1">
@@ -2056,8 +2060,8 @@
     </row>
     <row r="9" spans="1:6" ht="13.5" customHeight="1">
       <c r="A9" s="16"/>
-      <c r="B9" s="63" t="s">
-        <v>44</v>
+      <c r="B9" s="81" t="s">
+        <v>154</v>
       </c>
       <c r="C9" s="64"/>
       <c r="D9" s="65"/>
@@ -2092,7 +2096,7 @@
       <c r="F13" s="16"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
     <mergeCell ref="B9:D13"/>
   </mergeCells>
@@ -2129,16 +2133,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1">
       <c r="A1" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>15</v>
@@ -2153,368 +2157,368 @@
         <v>18</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickTop="1">
       <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="E3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -2585,39 +2589,39 @@
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="17" customFormat="1" ht="189">
-      <c r="A20" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="I20" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="50" t="s">
         <v>53</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="I20" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" s="51" t="s">
-        <v>55</v>
       </c>
       <c r="K20" s="10"/>
     </row>
@@ -2631,7 +2635,7 @@
     </row>
     <row r="23" spans="1:11" s="16" customFormat="1" ht="14.25" customHeight="1">
       <c r="B23" s="72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="73"/>
       <c r="D23" s="73"/>
